--- a/Lottery/Philo.Lottery/Resource/ExcelData/LotteryList.xlsx
+++ b/Lottery/Philo.Lottery/Resource/ExcelData/LotteryList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="145">
   <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,434 @@
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独创的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长坂坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpoow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从护额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cobng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评委名单和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dalo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇偶我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差距io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就哦哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁轭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排第五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘面上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍的品味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坡屋面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮炮兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮皮网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦哦我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百白破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破处门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗷呜你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮喷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从噢噢内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲破你吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没批评我呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不弄完呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own大姑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦脑囊虫病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没成年后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就own</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你从未</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶农</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>才弄完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弄发热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南北湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩赐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省外办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒泼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的撒盐yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨人厌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁瓦殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成许总我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dafdsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sadfsaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bxzc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsdfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cobngc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ewae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ewq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewqeqc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfzc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dasfda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dafda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fdwe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,10 +946,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,6 +1379,1588 @@
         <v>31</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>18696223189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>18609377290.799999</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>18595014763</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>18580652235.200001</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>18566289707.400002</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>18551927179.599998</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>18537564651.799999</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>18523202124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>18508839596.200001</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>18594477068.400002</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>18608839596.200001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>18623202124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>18637564651.799999</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>18651927179.599998</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>18666289707.400002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>18680652235.200001</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>18695014763</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>18709377290.799999</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>18723739818.599998</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>18738102346.400002</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>18752464874.200001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>18766827402</v>
+      </c>
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>18781189929.799999</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>18795552457.599998</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>13515475213</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>13526436132</v>
+      </c>
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>13537397051</v>
+      </c>
+      <c r="D57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>13548357970</v>
+      </c>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>13559318889</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>13570279808</v>
+      </c>
+      <c r="D60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61">
+        <v>13581240727</v>
+      </c>
+      <c r="D61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62">
+        <v>13592201646</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>13603162565</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>13614123484</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>13625084403</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66">
+        <v>13636045322</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>13647006241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>13657967160</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>13668928079</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>13679888998</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>13690849917</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72">
+        <v>13701810836</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73">
+        <v>13712771755</v>
+      </c>
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>13723732674</v>
+      </c>
+      <c r="D74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75">
+        <v>13734693593</v>
+      </c>
+      <c r="D75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>13745654512</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>13756615431</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>13767576350</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>13778537269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>13789498188</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <v>13800459107</v>
+      </c>
+      <c r="D81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>13811420026</v>
+      </c>
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>13822380945</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>13833341864</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <v>13844302783</v>
+      </c>
+      <c r="D85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86">
+        <v>13855263702</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>13866224621</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>13877185540</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>13888146459</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>13899107378</v>
+      </c>
+      <c r="D90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>13910068297</v>
+      </c>
+      <c r="D91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>13921029216</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>13931990135</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>13942951054</v>
+      </c>
+      <c r="D94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>13953911973</v>
+      </c>
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>13964872892</v>
+      </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>13975833811</v>
+      </c>
+      <c r="D97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>13986794730</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99">
+        <v>13997755649</v>
+      </c>
+      <c r="D99" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100">
+        <v>13985833811</v>
+      </c>
+      <c r="D100" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101">
+        <v>13973911973</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102">
+        <v>13961990135</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103">
+        <v>13950068297</v>
+      </c>
+      <c r="D103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104">
+        <v>13938146459</v>
+      </c>
+      <c r="D104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105">
+        <v>13926224621</v>
+      </c>
+      <c r="D105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106">
+        <v>13914302783</v>
+      </c>
+      <c r="D106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107">
+        <v>13902380945</v>
+      </c>
+      <c r="D107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108">
+        <v>13890459107</v>
+      </c>
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109">
+        <v>13878537269</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110">
+        <v>13866615431</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111">
+        <v>13854693593</v>
+      </c>
+      <c r="D111" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112">
+        <v>13842771755</v>
+      </c>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113">
+        <v>13830849917</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114">
+        <v>13818928079</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115">
+        <v>13807006241</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116">
+        <v>13795084403</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117">
+        <v>13783162565</v>
+      </c>
+      <c r="D117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118">
+        <v>13771240727</v>
+      </c>
+      <c r="D118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119">
+        <v>13759318889</v>
+      </c>
+      <c r="D119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120">
+        <v>13747397051</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121">
+        <v>13735475213</v>
+      </c>
+      <c r="D121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122">
+        <v>13723553375</v>
+      </c>
+      <c r="D122" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>13711631537</v>
+      </c>
+      <c r="D123" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124">
+        <v>13699709699</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125">
+        <v>13687787861</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126">
+        <v>13675866023</v>
+      </c>
+      <c r="D126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>13663944185</v>
+      </c>
+      <c r="D127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>13652022347</v>
+      </c>
+      <c r="D128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129">
+        <v>13640100509</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>121</v>
+      </c>
+      <c r="C130">
+        <v>13628178671</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131">
+        <v>13616256833</v>
+      </c>
+      <c r="D131" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132">
+        <v>13604334995</v>
+      </c>
+      <c r="D132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133">
+        <v>13592413157</v>
+      </c>
+      <c r="D133" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134">
+        <v>13580491319</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135">
+        <v>13568569481</v>
+      </c>
+      <c r="D135" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136">
+        <v>13556647643</v>
+      </c>
+      <c r="D136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>13544725805</v>
+      </c>
+      <c r="D137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138">
+        <v>13532803967</v>
+      </c>
+      <c r="D138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
+        <v>13520882129</v>
+      </c>
+      <c r="D139" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>13508960291</v>
+      </c>
+      <c r="D140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141">
+        <v>13497038453</v>
+      </c>
+      <c r="D141" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142">
+        <v>13485116615</v>
+      </c>
+      <c r="D142" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>13473194777</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
